--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Materi Sekolah\Perkuliahan\Saya\Semester VI\Kecerdasan Buatan\TB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8569AA5D-A9A1-4AAD-B548-ED1EFE3906AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3BC845-D6F8-4688-80F9-E95BA3B8EE22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{41029DD1-40A9-4873-96C2-BA461A4A30FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{41029DD1-40A9-4873-96C2-BA461A4A30FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="139">
   <si>
     <t>kecamatan</t>
   </si>
@@ -446,13 +446,16 @@
   </si>
   <si>
     <t>Hasil</t>
+  </si>
+  <si>
+    <t>Cluster Pyhton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +468,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -481,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -504,11 +513,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -518,6 +538,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -839,32 +860,32 @@
       <selection activeCell="A3" sqref="A3:L103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +927,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -948,7 +969,7 @@
       </c>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1011,7 @@
       </c>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1053,7 @@
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1095,7 @@
       </c>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1137,7 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1179,7 @@
       </c>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1221,7 @@
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1263,7 @@
       </c>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1284,7 +1305,7 @@
       </c>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1347,7 @@
       </c>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +1389,7 @@
       </c>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1410,7 +1431,7 @@
       </c>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1473,7 @@
       </c>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1494,7 +1515,7 @@
       </c>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1536,7 +1557,7 @@
       </c>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1578,7 +1599,7 @@
       </c>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +1641,7 @@
       </c>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1683,7 @@
       </c>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1704,7 +1725,7 @@
       </c>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1746,7 +1767,7 @@
       </c>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1788,7 +1809,7 @@
       </c>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1830,7 +1851,7 @@
       </c>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1872,7 +1893,7 @@
       </c>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1935,7 @@
       </c>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1956,7 +1977,7 @@
       </c>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1998,7 +2019,7 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2040,7 +2061,7 @@
       </c>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -2082,7 +2103,7 @@
       </c>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -2124,7 +2145,7 @@
       </c>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -2166,7 +2187,7 @@
       </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -2208,7 +2229,7 @@
       </c>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -2250,7 +2271,7 @@
       </c>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -2292,7 +2313,7 @@
       </c>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
@@ -2334,7 +2355,7 @@
       </c>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -2376,7 +2397,7 @@
       </c>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -2418,7 +2439,7 @@
       </c>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2460,7 +2481,7 @@
       </c>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -2502,7 +2523,7 @@
       </c>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -2544,7 +2565,7 @@
       </c>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
@@ -2586,7 +2607,7 @@
       </c>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -2628,7 +2649,7 @@
       </c>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2670,7 +2691,7 @@
       </c>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -2712,7 +2733,7 @@
       </c>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -2754,7 +2775,7 @@
       </c>
       <c r="P47" s="3"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2796,7 +2817,7 @@
       </c>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
@@ -2838,7 +2859,7 @@
       </c>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -2880,7 +2901,7 @@
       </c>
       <c r="P50" s="3"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
@@ -2922,7 +2943,7 @@
       </c>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
@@ -2964,7 +2985,7 @@
       </c>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>63</v>
       </c>
@@ -3006,7 +3027,7 @@
       </c>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>63</v>
       </c>
@@ -3048,7 +3069,7 @@
       </c>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
@@ -3090,7 +3111,7 @@
       </c>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
@@ -3132,7 +3153,7 @@
       </c>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>68</v>
       </c>
@@ -3174,7 +3195,7 @@
       </c>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>68</v>
       </c>
@@ -3216,7 +3237,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -3258,7 +3279,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
@@ -3300,7 +3321,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -3342,7 +3363,7 @@
       </c>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
@@ -3384,7 +3405,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
@@ -3426,7 +3447,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -3468,7 +3489,7 @@
       </c>
       <c r="P64" s="3"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>78</v>
       </c>
@@ -3510,7 +3531,7 @@
       </c>
       <c r="P65" s="3"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>78</v>
       </c>
@@ -3552,7 +3573,7 @@
       </c>
       <c r="P66" s="3"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>78</v>
       </c>
@@ -3594,7 +3615,7 @@
       </c>
       <c r="P67" s="3"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>78</v>
       </c>
@@ -3636,7 +3657,7 @@
       </c>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
@@ -3678,7 +3699,7 @@
       </c>
       <c r="P69" s="3"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>83</v>
       </c>
@@ -3720,7 +3741,7 @@
       </c>
       <c r="P70" s="3"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>83</v>
       </c>
@@ -3762,7 +3783,7 @@
       </c>
       <c r="P71" s="3"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>83</v>
       </c>
@@ -3804,7 +3825,7 @@
       </c>
       <c r="P72" s="3"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>88</v>
       </c>
@@ -3846,7 +3867,7 @@
       </c>
       <c r="P73" s="3"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>88</v>
       </c>
@@ -3888,7 +3909,7 @@
       </c>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>88</v>
       </c>
@@ -3930,7 +3951,7 @@
       </c>
       <c r="P75" s="3"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>88</v>
       </c>
@@ -3972,7 +3993,7 @@
       </c>
       <c r="P76" s="3"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>88</v>
       </c>
@@ -4014,7 +4035,7 @@
       </c>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -4056,7 +4077,7 @@
       </c>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -4098,7 +4119,7 @@
       </c>
       <c r="P79" s="3"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -4140,7 +4161,7 @@
       </c>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -4182,7 +4203,7 @@
       </c>
       <c r="P81" s="3"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>99</v>
       </c>
@@ -4224,7 +4245,7 @@
       </c>
       <c r="P82" s="3"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>99</v>
       </c>
@@ -4266,7 +4287,7 @@
       </c>
       <c r="P83" s="3"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>99</v>
       </c>
@@ -4308,7 +4329,7 @@
       </c>
       <c r="P84" s="3"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>99</v>
       </c>
@@ -4350,7 +4371,7 @@
       </c>
       <c r="P85" s="3"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>104</v>
       </c>
@@ -4392,7 +4413,7 @@
       </c>
       <c r="P86" s="3"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>104</v>
       </c>
@@ -4434,7 +4455,7 @@
       </c>
       <c r="P87" s="3"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>104</v>
       </c>
@@ -4476,7 +4497,7 @@
       </c>
       <c r="P88" s="3"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>104</v>
       </c>
@@ -4518,7 +4539,7 @@
       </c>
       <c r="P89" s="3"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>109</v>
       </c>
@@ -4560,7 +4581,7 @@
       </c>
       <c r="P90" s="3"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>109</v>
       </c>
@@ -4602,7 +4623,7 @@
       </c>
       <c r="P91" s="3"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>109</v>
       </c>
@@ -4644,7 +4665,7 @@
       </c>
       <c r="P92" s="3"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>109</v>
       </c>
@@ -4686,7 +4707,7 @@
       </c>
       <c r="P93" s="3"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>114</v>
       </c>
@@ -4728,7 +4749,7 @@
       </c>
       <c r="P94" s="3"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>114</v>
       </c>
@@ -4770,7 +4791,7 @@
       </c>
       <c r="P95" s="3"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>114</v>
       </c>
@@ -4812,7 +4833,7 @@
       </c>
       <c r="P96" s="3"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>114</v>
       </c>
@@ -4854,7 +4875,7 @@
       </c>
       <c r="P97" s="3"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>114</v>
       </c>
@@ -4896,7 +4917,7 @@
       </c>
       <c r="P98" s="3"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>114</v>
       </c>
@@ -4938,7 +4959,7 @@
       </c>
       <c r="P99" s="3"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>61</v>
       </c>
@@ -4980,7 +5001,7 @@
       </c>
       <c r="P100" s="3"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>61</v>
       </c>
@@ -5022,7 +5043,7 @@
       </c>
       <c r="P101" s="3"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>61</v>
       </c>
@@ -5064,7 +5085,7 @@
       </c>
       <c r="P102" s="3"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>61</v>
       </c>
@@ -5116,34 +5137,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604265EA-8478-49F7-BAED-21CC710111B8}">
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P112" sqref="P112"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>134</v>
       </c>
@@ -5184,7 +5206,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>12</v>
       </c>
@@ -5225,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>27</v>
       </c>
@@ -5266,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>134</v>
       </c>
@@ -5315,8 +5337,11 @@
       <c r="P9" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -5368,8 +5393,11 @@
         <f>IF(AND(N10&lt;O10),1,IF(AND(O10&lt;N10),2))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -5421,8 +5449,11 @@
         <f t="shared" ref="P11:P74" si="1">IF(AND(N11&lt;O11),1,IF(AND(O11&lt;N11),2))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -5474,8 +5505,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -5527,8 +5561,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -5580,8 +5617,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>6</v>
       </c>
@@ -5633,8 +5673,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -5686,8 +5729,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -5739,8 +5785,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -5792,8 +5841,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>10</v>
       </c>
@@ -5845,8 +5897,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>11</v>
       </c>
@@ -5898,8 +5953,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>12</v>
       </c>
@@ -5951,8 +6009,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>13</v>
       </c>
@@ -6004,8 +6065,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -6057,8 +6121,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -6110,8 +6177,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -6163,8 +6233,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -6216,8 +6289,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -6269,8 +6345,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -6322,8 +6401,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>20</v>
       </c>
@@ -6375,8 +6457,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -6428,8 +6513,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -6481,8 +6569,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -6534,8 +6625,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -6587,8 +6681,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -6640,8 +6737,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -6693,8 +6793,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -6746,8 +6849,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -6799,8 +6905,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -6852,8 +6961,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -6905,8 +7017,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -6958,8 +7073,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -7011,8 +7129,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -7064,8 +7185,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>34</v>
       </c>
@@ -7117,8 +7241,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>35</v>
       </c>
@@ -7170,8 +7297,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -7223,8 +7353,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -7276,8 +7409,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -7329,8 +7465,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -7382,8 +7521,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -7435,8 +7577,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -7488,8 +7633,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -7541,8 +7689,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -7594,8 +7745,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -7647,8 +7801,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -7700,8 +7857,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -7753,8 +7913,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -7806,8 +7969,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -7859,8 +8025,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>49</v>
       </c>
@@ -7912,8 +8081,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>50</v>
       </c>
@@ -7965,8 +8137,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>51</v>
       </c>
@@ -8018,8 +8193,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>52</v>
       </c>
@@ -8071,8 +8249,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>53</v>
       </c>
@@ -8124,8 +8305,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>54</v>
       </c>
@@ -8177,8 +8361,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>55</v>
       </c>
@@ -8230,8 +8417,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>56</v>
       </c>
@@ -8283,8 +8473,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>57</v>
       </c>
@@ -8336,8 +8529,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>58</v>
       </c>
@@ -8389,8 +8585,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>59</v>
       </c>
@@ -8442,8 +8641,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>60</v>
       </c>
@@ -8495,8 +8697,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>61</v>
       </c>
@@ -8548,8 +8753,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>62</v>
       </c>
@@ -8601,8 +8809,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>63</v>
       </c>
@@ -8654,8 +8865,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>64</v>
       </c>
@@ -8707,8 +8921,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>65</v>
       </c>
@@ -8760,8 +8977,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>66</v>
       </c>
@@ -8813,8 +9033,11 @@
         <f t="shared" ref="P75:P109" si="4">IF(AND(N75&lt;O75),1,IF(AND(O75&lt;N75),2))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>67</v>
       </c>
@@ -8866,8 +9089,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>68</v>
       </c>
@@ -8919,8 +9145,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>69</v>
       </c>
@@ -8972,8 +9201,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>70</v>
       </c>
@@ -9025,8 +9257,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>71</v>
       </c>
@@ -9078,8 +9313,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>72</v>
       </c>
@@ -9131,8 +9369,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>73</v>
       </c>
@@ -9184,8 +9425,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>74</v>
       </c>
@@ -9237,8 +9481,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>75</v>
       </c>
@@ -9290,8 +9537,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>76</v>
       </c>
@@ -9343,8 +9593,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>77</v>
       </c>
@@ -9396,8 +9649,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>78</v>
       </c>
@@ -9449,8 +9705,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>79</v>
       </c>
@@ -9502,8 +9761,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>80</v>
       </c>
@@ -9555,8 +9817,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>81</v>
       </c>
@@ -9608,8 +9873,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>82</v>
       </c>
@@ -9661,8 +9929,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>83</v>
       </c>
@@ -9714,8 +9985,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>84</v>
       </c>
@@ -9767,8 +10041,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>85</v>
       </c>
@@ -9820,8 +10097,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>86</v>
       </c>
@@ -9873,8 +10153,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>87</v>
       </c>
@@ -9926,8 +10209,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>88</v>
       </c>
@@ -9979,8 +10265,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>89</v>
       </c>
@@ -10032,8 +10321,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>90</v>
       </c>
@@ -10085,8 +10377,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>91</v>
       </c>
@@ -10138,8 +10433,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>92</v>
       </c>
@@ -10191,8 +10489,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>93</v>
       </c>
@@ -10244,8 +10545,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>94</v>
       </c>
@@ -10297,8 +10601,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>95</v>
       </c>
@@ -10350,8 +10657,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>96</v>
       </c>
@@ -10403,8 +10713,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>97</v>
       </c>
@@ -10456,8 +10769,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>98</v>
       </c>
@@ -10509,8 +10825,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>99</v>
       </c>
@@ -10562,8 +10881,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>100</v>
       </c>
@@ -10615,8 +10937,12 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="Q109">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>